--- a/biology/Botanique/Chysis/Chysis.xlsx
+++ b/biology/Botanique/Chysis/Chysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chysis est un genre de la famille des Orchidaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom du genre vient du grec  χυσις (khysis) qui signifie « déversement » ou « fusion », en référence aux épanchements liquides qui se produisent souvent dans les pollinies.
 </t>
@@ -542,7 +556,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Thorvaldsenia Liebm. (1844)</t>
         </is>
@@ -572,7 +588,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Amérique centrale et Amérique du Sud, du Mexique au Pérou.
 </t>
@@ -603,7 +621,9 @@
           <t>Liste partielle d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Chysis addita Dressler 2000
 Chysis aurea Lindl. 1837
@@ -643,7 +663,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Schlechter R., 1926. Notizhl. Bot. Gart. Mus. Berlin-Dahlem, 9, 575.
 Lindley J., 1837. Edward's Bot. Reg. 23, t. 1937.</t>
